--- a/doc/KeyV3/KeyV3_LipidMapName/spname_dict_V3_3.0.xlsx
+++ b/doc/KeyV3/KeyV3_LipidMapName/spname_dict_V3_3.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Projects\LA2.0\LA_GUI2.3\dict_3.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\SLA_1.12_test\doc\KeyV3\KeyV3_LipidMapName\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -11753,7 +11753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -11806,6 +11806,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -32923,8 +32924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
+      <selection activeCell="D626" sqref="D626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46375,25 +46376,25 @@
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A636">
+      <c r="A636" s="2">
         <v>698.6</v>
       </c>
-      <c r="B636">
+      <c r="B636" s="2">
         <v>369.3</v>
       </c>
-      <c r="C636" t="b">
-        <v>0</v>
-      </c>
-      <c r="D636" t="s">
+      <c r="C636" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D636" s="2" t="s">
         <v>3175</v>
       </c>
-      <c r="E636" t="s">
+      <c r="E636" s="2" t="s">
         <v>3737</v>
       </c>
-      <c r="F636" s="47" t="s">
+      <c r="F636" s="48" t="s">
         <v>3673</v>
       </c>
-      <c r="G636" s="47" t="s">
+      <c r="G636" s="48" t="s">
         <v>3673</v>
       </c>
     </row>

--- a/doc/KeyV3/KeyV3_LipidMapName/spname_dict_V3_3.0.xlsx
+++ b/doc/KeyV3/KeyV3_LipidMapName/spname_dict_V3_3.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Projects\LA2.0\LA_GUI2.3\dict_3.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\SLA_1.12_test\doc\KeyV3\KeyV3_LipidMapName\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -11753,7 +11753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -11806,6 +11806,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -32923,8 +32924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
+      <selection activeCell="A636" sqref="A636:G636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46375,25 +46376,25 @@
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A636">
+      <c r="A636" s="2">
         <v>698.6</v>
       </c>
-      <c r="B636">
+      <c r="B636" s="2">
         <v>369.3</v>
       </c>
-      <c r="C636" t="b">
-        <v>0</v>
-      </c>
-      <c r="D636" t="s">
+      <c r="C636" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D636" s="2" t="s">
         <v>3175</v>
       </c>
-      <c r="E636" t="s">
+      <c r="E636" s="2" t="s">
         <v>3737</v>
       </c>
-      <c r="F636" s="47" t="s">
+      <c r="F636" s="48" t="s">
         <v>3673</v>
       </c>
-      <c r="G636" s="47" t="s">
+      <c r="G636" s="48" t="s">
         <v>3673</v>
       </c>
     </row>

--- a/doc/KeyV3/KeyV3_LipidMapName/spname_dict_V3_3.0.xlsx
+++ b/doc/KeyV3/KeyV3_LipidMapName/spname_dict_V3_3.0.xlsx
@@ -32924,8 +32924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
-      <selection activeCell="D626" sqref="D626"/>
+    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
+      <selection activeCell="D605" sqref="D605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45603,7 +45603,7 @@
       <c r="C602" t="b">
         <v>0</v>
       </c>
-      <c r="D602" t="s">
+      <c r="D602" s="42" t="s">
         <v>3141</v>
       </c>
       <c r="E602" t="s">
@@ -46385,7 +46385,7 @@
       <c r="C636" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D636" s="2" t="s">
+      <c r="D636" s="42" t="s">
         <v>3175</v>
       </c>
       <c r="E636" s="2" t="s">

--- a/doc/KeyV3/KeyV3_LipidMapName/spname_dict_V3_3.0.xlsx
+++ b/doc/KeyV3/KeyV3_LipidMapName/spname_dict_V3_3.0.xlsx
@@ -12090,7 +12090,7 @@
   <dimension ref="A1:G918"/>
   <sheetViews>
     <sheetView topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="D451" sqref="D451"/>
+      <selection activeCell="J444" sqref="J444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32924,8 +32924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="D605" sqref="D605"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
